--- a/data/case1/5/P1_2.xlsx
+++ b/data/case1/5/P1_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.47247904968428145</v>
+        <v>0.28991759397096928</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999991110308883</v>
+        <v>-0.0099999994008044268</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999990936444618</v>
+        <v>-0.0089999993921114907</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999783149917</v>
+        <v>-0.011999999847677856</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999991061392421</v>
+        <v>-0.0059999994013333335</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999990819115112</v>
+        <v>0.071913365167972643</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999998928769358</v>
+        <v>-0.019999999282211078</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999998927616502</v>
+        <v>-0.090532356016239213</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999990813954795</v>
+        <v>-0.005999999379238119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999990843166984</v>
+        <v>-0.0059999993824746412</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999991010321594</v>
+        <v>0.080358353884715683</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.030946247925133452</v>
+        <v>-0.0059999993796391315</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999990842092288</v>
+        <v>-0.0059999993698625076</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999019027818</v>
+        <v>-0.011999999323326627</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999990852430685</v>
+        <v>-0.0059999993649917371</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.02886253056272281</v>
+        <v>-0.0059999993630666104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999990839418871</v>
+        <v>-0.0059999993604478163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999990506752781</v>
+        <v>-0.0089999993379983323</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.079101582758173361</v>
+        <v>-0.0089999994074987377</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999990878810721</v>
+        <v>-0.0089999994021727758</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999990811984176</v>
+        <v>-0.0089999994013965079</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.072123500088313808</v>
+        <v>-0.0089999994008653772</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999990832190235</v>
+        <v>-0.0089999993867060368</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998704549846</v>
+        <v>-0.041999999137670052</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.065306658736506762</v>
+        <v>-0.041999999132922738</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999990803021319</v>
+        <v>-0.0059999993848052213</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999990754402432</v>
+        <v>-0.0059999993817090314</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999990554882032</v>
+        <v>-0.005999999367853448</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999998977428206</v>
+        <v>-0.011999999315358778</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999998883872383</v>
+        <v>-0.019999999252570344</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.01499999892907411</v>
+        <v>-0.01499999928263307</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.02099999886226378</v>
+        <v>-0.02099999923789575</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.005999999025100955</v>
+        <v>-0.0059999993469173063</v>
       </c>
     </row>
   </sheetData>
